--- a/seasons_data.xlsx
+++ b/seasons_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clare\Documents\Clare\2017-2018\INFO_3300\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelzhang/Documents/GitHub/CS-3300-P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442FB0E8-429E-3A43-A46C-ACDD209A3C1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="6563"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30200" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weather_data" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="21">
   <si>
     <t>Winter</t>
   </si>
@@ -73,11 +74,29 @@
   <si>
     <t>Santa_Barbara</t>
   </si>
+  <si>
+    <t>total rain</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Decile</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,13 +126,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,7 +166,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -455,20 +478,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="H353" sqref="H353"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.06640625" style="3"/>
-    <col min="5" max="6" width="9.06640625" style="2"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -487,8 +514,26 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <f>D1</f>
+        <v>precip_day</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>E1</f>
+        <v>precip_avg</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>F1</f>
+        <v>temp_avg</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -507,8 +552,31 @@
       <c r="F2" s="2">
         <v>49.733333333333327</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <f>E2*D2</f>
+        <v>12.21127946127946</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <f>MIN(D2:D361)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:M2" si="0">MIN(E2:E361)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="0"/>
+        <v>45.349999999999994</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -527,8 +595,34 @@
       <c r="F3" s="2">
         <v>60.966666666666661</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">E3*D3</f>
+        <v>2.3033333333333337</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
+        <f>PERCENTILE(D$2:D$361,0.1)</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:M3" si="2">PERCENTILE(E$2:E$361,0.1)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="2"/>
+        <v>49.1</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -547,8 +641,32 @@
       <c r="F4" s="2">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.075</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5">
+        <f>PERCENTILE(D$2:D$361,0.2)</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:M4" si="3">PERCENTILE(E$2:E$361,0.2)</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="3"/>
+        <v>53.379999999999995</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11966666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -567,8 +685,32 @@
       <c r="F5" s="2">
         <v>52.566666666666663</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>6.3619047619047633</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5">
+        <f>PERCENTILE(D$2:D$361,0.3)</f>
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" ref="K5:M5" si="4">PERCENTILE(E$2:E$361,0.3)</f>
+        <v>9.0350000000000014E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="4"/>
+        <v>55.89</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.60141666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -587,8 +729,32 @@
       <c r="F6" s="2">
         <v>48.333333333333336</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>27.57466403162055</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5">
+        <f>PERCENTILE(D$2:D$361,0.4)</f>
+        <v>7</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6:M6" si="5">PERCENTILE(E$2:E$361,0.4)</f>
+        <v>0.14471428571428571</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="5"/>
+        <v>57.653333333333329</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2721666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -607,8 +773,32 @@
       <c r="F7" s="2">
         <v>56.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>8.4679761904761914</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+      <c r="J7" s="5">
+        <f>PERCENTILE(D$2:D$361,0.5)</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ref="K7:M7" si="6">PERCENTILE(E$2:E$361,0.5)</f>
+        <v>0.21012626262626261</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="6"/>
+        <v>59.5</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="6"/>
+        <v>2.1724999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -627,8 +817,32 @@
       <c r="F8" s="2">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2">
+        <v>60</v>
+      </c>
+      <c r="J8" s="5">
+        <f>PERCENTILE(D$2:D$361,0.6)</f>
+        <v>13</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" ref="K8:M8" si="7">PERCENTILE(E$2:E$361,0.6)</f>
+        <v>0.26203703703703701</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="7"/>
+        <v>61.18</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="7"/>
+        <v>3.3867714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -647,8 +861,32 @@
       <c r="F9" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5.6717543859649124</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2">
+        <v>70</v>
+      </c>
+      <c r="J9" s="5">
+        <f>PERCENTILE(D$2:D$361,0.7)</f>
+        <v>17</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9:M9" si="8">PERCENTILE(E$2:E$361,0.7)</f>
+        <v>0.31955555555555554</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="8"/>
+        <v>62.73833333333333</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="8"/>
+        <v>4.970766666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -667,8 +905,32 @@
       <c r="F10" s="2">
         <v>48.066666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>13.703757575757576</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2">
+        <v>80</v>
+      </c>
+      <c r="J10" s="5">
+        <f>PERCENTILE(D$2:D$361,0.8)</f>
+        <v>22</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" ref="K10:M10" si="9">PERCENTILE(E$2:E$361,0.8)</f>
+        <v>0.39117878787878785</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="9"/>
+        <v>65.166666666666657</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="9"/>
+        <v>7.2846666666666611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -687,8 +949,32 @@
       <c r="F11" s="2">
         <v>53.650000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>5.6473846153846159</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2">
+        <v>90</v>
+      </c>
+      <c r="J11" s="5">
+        <f>PERCENTILE(D$2:D$361,0.9)</f>
+        <v>29</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" ref="K11:M11" si="10">PERCENTILE(E$2:E$361,0.9)</f>
+        <v>0.51039880952380956</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="10"/>
+        <v>70.876666666666665</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="10"/>
+        <v>12.214219280719281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -707,8 +993,32 @@
       <c r="F12" s="2">
         <v>66.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="5">
+        <f>PERCENTILE(D$2:D$361,1)</f>
+        <v>53</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" ref="K12:M12" si="11">PERCENTILE(E$2:E$361,1)</f>
+        <v>1.1849999999999998</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="11"/>
+        <v>76.13333333333334</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="11"/>
+        <v>30.751487179487182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -727,8 +1037,31 @@
       <c r="F13" s="2">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>3.6455555555555552</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="2">
+        <f>MAX(D2:D361)</f>
+        <v>53</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13:M13" si="12">MAX(E2:E361)</f>
+        <v>1.1849999999999998</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="12"/>
+        <v>76.13333333333334</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="12"/>
+        <v>30.751487179487182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -747,8 +1080,12 @@
       <c r="F14" s="2">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>16.115436507936508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -767,8 +1104,12 @@
       <c r="F15" s="2">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>7.1896296296296303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -787,8 +1128,12 @@
       <c r="F16" s="2">
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -807,8 +1152,12 @@
       <c r="F17" s="2">
         <v>61.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>3.249166666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -827,8 +1176,12 @@
       <c r="F18" s="2">
         <v>48.133333333333326</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>18.15037330316742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -847,8 +1200,12 @@
       <c r="F19" s="2">
         <v>59.699999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.8422857142857143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -867,8 +1224,12 @@
       <c r="F20" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -887,8 +1248,12 @@
       <c r="F21" s="2">
         <v>61.199999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -907,8 +1272,12 @@
       <c r="F22" s="2">
         <v>49.266666666666673</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>15.768000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -927,8 +1296,12 @@
       <c r="F23" s="2">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>4.0062499999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -947,8 +1320,12 @@
       <c r="F24" s="2">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1344,12 @@
       <c r="F25" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.6928571428571428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1368,12 @@
       <c r="F26" s="2">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>12.633354978354978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1007,8 +1392,12 @@
       <c r="F27" s="2">
         <v>53.55</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>7.6233333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1027,8 +1416,12 @@
       <c r="F28" s="2">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1047,8 +1440,12 @@
       <c r="F29" s="2">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1.1733333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1067,8 +1464,12 @@
       <c r="F30" s="2">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>24.447159090909093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1087,8 +1488,12 @@
       <c r="F31" s="2">
         <v>60.466666666666669</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1512,12 @@
       <c r="F32" s="2">
         <v>69.699999999999989</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1536,12 @@
       <c r="F33" s="2">
         <v>61.366666666666667</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>5.900555555555556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1560,12 @@
       <c r="F34" s="2">
         <v>49.633333333333333</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>21.583916083916087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1167,8 +1584,12 @@
       <c r="F35" s="2">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>10.436623376623377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1187,8 +1608,12 @@
       <c r="F36" s="2">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1207,8 +1632,12 @@
       <c r="F37" s="2">
         <v>59.85</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1.587142857142857</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +1656,12 @@
       <c r="F38" s="2">
         <v>49.033333333333331</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>12.980833333333335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1247,8 +1680,12 @@
       <c r="F39" s="2">
         <v>55.45</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>12.540380952380952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1267,8 +1704,12 @@
       <c r="F40" s="2">
         <v>62.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1728,12 @@
       <c r="F41" s="2">
         <v>53.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>3.7277777777777774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1307,8 +1752,12 @@
       <c r="F42" s="2">
         <v>47.333333333333336</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>9.0073333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1327,8 +1776,12 @@
       <c r="F43" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1347,8 +1800,12 @@
       <c r="F44" s="2">
         <v>69.300000000000011</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1367,8 +1824,12 @@
       <c r="F45" s="2">
         <v>57.31</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>2.3209523809523809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1387,8 +1848,12 @@
       <c r="F46" s="2">
         <v>46.966666666666669</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>14.377277777777776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1407,8 +1872,12 @@
       <c r="F47" s="2">
         <v>57.633333333333333</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.71666666666666656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1427,8 +1896,12 @@
       <c r="F48" s="2">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1447,8 +1920,12 @@
       <c r="F49" s="2">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1467,8 +1944,12 @@
       <c r="F50" s="2">
         <v>47.349999999999994</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>8.4247058823529404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1487,8 +1968,12 @@
       <c r="F51" s="2">
         <v>57.033333333333331</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>4.6349999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1507,8 +1992,12 @@
       <c r="F52" s="2">
         <v>66.349999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1527,8 +2016,12 @@
       <c r="F53" s="2">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>3.1079999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1547,8 +2040,12 @@
       <c r="F54" s="2">
         <v>49.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>20.404423076923081</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1567,8 +2064,12 @@
       <c r="F55" s="2">
         <v>58.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1587,8 +2088,12 @@
       <c r="F56" s="2">
         <v>68.430000000000007</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1607,8 +2112,12 @@
       <c r="F57" s="2">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>4.8777777777777782</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1627,8 +2136,12 @@
       <c r="F58" s="2">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1.9900000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1647,8 +2160,12 @@
       <c r="F59" s="2">
         <v>53.95</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1667,8 +2184,12 @@
       <c r="F60" s="2">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1687,8 +2208,12 @@
       <c r="F61" s="2">
         <v>56.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -1707,8 +2232,12 @@
       <c r="F62" s="2">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1727,8 +2256,12 @@
       <c r="F63" s="2">
         <v>58.14</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1747,8 +2280,12 @@
       <c r="F64" s="2">
         <v>69.23</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1767,8 +2304,12 @@
       <c r="F65" s="2">
         <v>60.766666666666673</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>4.424722222222222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1787,8 +2328,12 @@
       <c r="F66" s="2">
         <v>45.349999999999994</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>2.5246666666666666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1807,8 +2352,12 @@
       <c r="F67" s="2">
         <v>59.233333333333327</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="13">E67*D67</f>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -1827,8 +2376,12 @@
       <c r="F68" s="2">
         <v>68.333333333333329</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G68">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -1847,8 +2400,12 @@
       <c r="F69" s="2">
         <v>63.550000000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G69">
+        <f t="shared" si="13"/>
+        <v>1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -1867,8 +2424,12 @@
       <c r="F70" s="2">
         <v>52.066666666666663</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G70">
+        <f t="shared" si="13"/>
+        <v>16.385999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -1887,8 +2448,12 @@
       <c r="F71" s="2">
         <v>56.156097560975589</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G71">
+        <f t="shared" si="13"/>
+        <v>4.5175409589006259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -1907,8 +2472,12 @@
       <c r="F72" s="2">
         <v>68.966666666666654</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G72">
+        <f t="shared" si="13"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -1927,8 +2496,12 @@
       <c r="F73" s="2">
         <v>63.133333333333333</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G73">
+        <f t="shared" si="13"/>
+        <v>3.5413888888888887</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -1947,8 +2520,12 @@
       <c r="F74" s="2">
         <v>47.55</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G74">
+        <f t="shared" si="13"/>
+        <v>10.358518518518521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -1967,8 +2544,12 @@
       <c r="F75" s="2">
         <v>61.933333333333302</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G75">
+        <f t="shared" si="13"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1987,8 +2568,12 @@
       <c r="F76" s="2">
         <v>74.033333333333331</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G76">
+        <f t="shared" si="13"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2007,8 +2592,12 @@
       <c r="F77" s="2">
         <v>63.29999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G77">
+        <f t="shared" si="13"/>
+        <v>4.6277777777777773</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2027,8 +2616,12 @@
       <c r="F78" s="2">
         <v>47.033333333333331</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G78">
+        <f t="shared" si="13"/>
+        <v>24.85359850606909</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2047,8 +2640,12 @@
       <c r="F79" s="2">
         <v>54.699999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G79">
+        <f t="shared" si="13"/>
+        <v>10.793749999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -2067,8 +2664,12 @@
       <c r="F80" s="2">
         <v>72.833333333333329</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2087,8 +2688,12 @@
       <c r="F81" s="2">
         <v>61.966666666666669</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G81">
+        <f t="shared" si="13"/>
+        <v>3.9794444444444443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2107,8 +2712,12 @@
       <c r="F82" s="2">
         <v>46.866666666666667</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G82">
+        <f t="shared" si="13"/>
+        <v>8.1373333333333324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -2127,8 +2736,12 @@
       <c r="F83" s="2">
         <v>56.366666666666667</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G83">
+        <f t="shared" si="13"/>
+        <v>5.0447222222222221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2147,8 +2760,12 @@
       <c r="F84" s="2">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G84">
+        <f t="shared" si="13"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2167,8 +2784,12 @@
       <c r="F85" s="2">
         <v>64.333333333333329</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G85">
+        <f t="shared" si="13"/>
+        <v>2.7953333333333332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -2187,8 +2808,12 @@
       <c r="F86" s="2">
         <v>48.533333333333331</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G86">
+        <f t="shared" si="13"/>
+        <v>13.412142857142857</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2207,8 +2832,12 @@
       <c r="F87" s="2">
         <v>59.366666666666667</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G87">
+        <f t="shared" si="13"/>
+        <v>6.4288888888888893</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -2227,8 +2856,12 @@
       <c r="F88" s="2">
         <v>73.63333333333334</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G88">
+        <f t="shared" si="13"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -2247,8 +2880,12 @@
       <c r="F89" s="2">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G89">
+        <f t="shared" si="13"/>
+        <v>3.2220000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -2267,8 +2904,12 @@
       <c r="F90" s="2">
         <v>46.633333333333326</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G90">
+        <f t="shared" si="13"/>
+        <v>30.751487179487182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -2287,8 +2928,12 @@
       <c r="F91" s="2">
         <v>60.766666666666659</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G91">
+        <f t="shared" si="13"/>
+        <v>2.5449999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2307,8 +2952,12 @@
       <c r="F92" s="2">
         <v>74.733333333333334</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G92">
+        <f t="shared" si="13"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -2327,8 +2976,12 @@
       <c r="F93" s="2">
         <v>64.566666666666663</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G93">
+        <f t="shared" si="13"/>
+        <v>4.4950000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -2347,8 +3000,12 @@
       <c r="F94" s="2">
         <v>48.233333333333327</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G94">
+        <f t="shared" si="13"/>
+        <v>15.492136752136755</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2367,8 +3024,12 @@
       <c r="F95" s="2">
         <v>57.833333333333336</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G95">
+        <f t="shared" si="13"/>
+        <v>3.6833333333333336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -2387,8 +3048,12 @@
       <c r="F96" s="2">
         <v>74.766666666666666</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G96">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2407,8 +3072,12 @@
       <c r="F97" s="2">
         <v>63.43333333333333</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G97">
+        <f t="shared" si="13"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -2427,8 +3096,12 @@
       <c r="F98" s="2">
         <v>49.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G98">
+        <f t="shared" si="13"/>
+        <v>11.458857142857145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -2447,8 +3120,12 @@
       <c r="F99" s="2">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G99">
+        <f t="shared" si="13"/>
+        <v>7.9219999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -2467,8 +3144,12 @@
       <c r="F100" s="2">
         <v>76.13333333333334</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G100">
+        <f t="shared" si="13"/>
+        <v>0.23000000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -2487,8 +3168,12 @@
       <c r="F101" s="2">
         <v>64.866666666666674</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G101">
+        <f t="shared" si="13"/>
+        <v>1.2333333333333334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -2507,8 +3192,12 @@
       <c r="F102" s="2">
         <v>48.333333333333336</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G102">
+        <f t="shared" si="13"/>
+        <v>21.657051282051281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -2527,8 +3216,12 @@
       <c r="F103" s="2">
         <v>61.800000000000004</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G103">
+        <f t="shared" si="13"/>
+        <v>1.0833333333333335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -2547,8 +3240,12 @@
       <c r="F104" s="2">
         <v>74.86666666666666</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G104">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -2567,8 +3264,12 @@
       <c r="F105" s="2">
         <v>62.666666666666664</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G105">
+        <f t="shared" si="13"/>
+        <v>5.1833333333333336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -2587,8 +3288,12 @@
       <c r="F106" s="2">
         <v>48.966666666666661</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G106">
+        <f t="shared" si="13"/>
+        <v>26.334307359307356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -2607,8 +3312,12 @@
       <c r="F107" s="2">
         <v>58.533333333333331</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G107">
+        <f t="shared" si="13"/>
+        <v>8.7889999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -2627,8 +3336,12 @@
       <c r="F108" s="2">
         <v>74.899999999999991</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G108">
+        <f t="shared" si="13"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -2647,8 +3360,12 @@
       <c r="F109" s="2">
         <v>62.666666666666664</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G109">
+        <f t="shared" si="13"/>
+        <v>1.8550000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -2667,8 +3384,12 @@
       <c r="F110" s="2">
         <v>48.800000000000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G110">
+        <f t="shared" si="13"/>
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -2687,8 +3408,12 @@
       <c r="F111" s="2">
         <v>56.533333333333331</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G111">
+        <f t="shared" si="13"/>
+        <v>13.134545454545453</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -2707,8 +3432,12 @@
       <c r="F112" s="2">
         <v>75.333333333333329</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G112">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -2727,8 +3456,12 @@
       <c r="F113" s="2">
         <v>61.933333333333337</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G113">
+        <f t="shared" si="13"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2747,8 +3480,12 @@
       <c r="F114" s="2">
         <v>46.966666666666661</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G114">
+        <f t="shared" si="13"/>
+        <v>6.8243722943722949</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -2767,8 +3504,12 @@
       <c r="F115" s="2">
         <v>60.133333333333333</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G115">
+        <f t="shared" si="13"/>
+        <v>1.6749999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -2787,8 +3528,12 @@
       <c r="F116" s="2">
         <v>72.899999999999991</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G116">
+        <f t="shared" si="13"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -2807,8 +3552,12 @@
       <c r="F117" s="2">
         <v>61.666666666666664</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G117">
+        <f t="shared" si="13"/>
+        <v>2.0777777777777775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -2827,8 +3576,12 @@
       <c r="F118" s="2">
         <v>46.166666666666664</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G118">
+        <f t="shared" si="13"/>
+        <v>19.677777777777781</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -2847,8 +3600,12 @@
       <c r="F119" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G119">
+        <f t="shared" si="13"/>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -2867,8 +3624,12 @@
       <c r="F120" s="2">
         <v>75.133333333333326</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G120">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2887,8 +3648,12 @@
       <c r="F121" s="2">
         <v>64.166666666666671</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G121">
+        <f t="shared" si="13"/>
+        <v>2.3508333333333336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -2907,8 +3672,12 @@
       <c r="F122" s="2">
         <v>47.366666666666667</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G122">
+        <f t="shared" si="13"/>
+        <v>10.360119047619049</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -2927,8 +3696,12 @@
       <c r="F123" s="2">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G123">
+        <f t="shared" si="13"/>
+        <v>2.1674999999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -2947,8 +3720,12 @@
       <c r="F124" s="2">
         <v>73.63333333333334</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G124">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -2967,8 +3744,12 @@
       <c r="F125" s="2">
         <v>63.266666666666673</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G125">
+        <f t="shared" si="13"/>
+        <v>2.1388888888888893</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -2987,8 +3768,12 @@
       <c r="F126" s="2">
         <v>49.433333333333337</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G126">
+        <f t="shared" si="13"/>
+        <v>23.430619047619047</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -3007,8 +3792,12 @@
       <c r="F127" s="2">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G127">
+        <f t="shared" si="13"/>
+        <v>7.0185714285714287</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -3027,8 +3816,12 @@
       <c r="F128" s="2">
         <v>72.933333333333337</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G128">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -3047,8 +3840,12 @@
       <c r="F129" s="2">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G129">
+        <f t="shared" si="13"/>
+        <v>3.2512380952380959</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -3067,8 +3864,12 @@
       <c r="F130" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G130">
+        <f t="shared" si="13"/>
+        <v>6.8933333333333335</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -3087,8 +3888,12 @@
       <c r="F131" s="2">
         <v>55.366666666666667</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="14">E131*D131</f>
+        <v>10.149682539682541</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -3107,8 +3912,12 @@
       <c r="F132" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G132">
+        <f t="shared" si="14"/>
+        <v>1.3066666666666666</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -3127,8 +3936,12 @@
       <c r="F133" s="2">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G133">
+        <f t="shared" si="14"/>
+        <v>2.3450000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -3147,8 +3960,12 @@
       <c r="F134" s="2">
         <v>48.666666666666664</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G134">
+        <f t="shared" si="14"/>
+        <v>16.295111111111112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -3167,8 +3984,12 @@
       <c r="F135" s="2">
         <v>57.666666666666664</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G135">
+        <f t="shared" si="14"/>
+        <v>7.8275555555555565</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -3187,8 +4008,12 @@
       <c r="F136" s="2">
         <v>74.033333333333331</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G136">
+        <f t="shared" si="14"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -3207,8 +4032,12 @@
       <c r="F137" s="2">
         <v>64.133333333333326</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G137">
+        <f t="shared" si="14"/>
+        <v>4.8871428571428579</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -3227,8 +4056,12 @@
       <c r="F138" s="2">
         <v>46.366666666666674</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G138">
+        <f t="shared" si="14"/>
+        <v>1.7066666666666668</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -3247,8 +4080,12 @@
       <c r="F139" s="2">
         <v>60.70000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G139">
+        <f t="shared" si="14"/>
+        <v>1.7066666666666666</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -3267,8 +4104,12 @@
       <c r="F140" s="2">
         <v>74.666666666666657</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G140">
+        <f t="shared" si="14"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -3287,8 +4128,12 @@
       <c r="F141" s="2">
         <v>62.29999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G141">
+        <f t="shared" si="14"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -3307,8 +4152,12 @@
       <c r="F142" s="2">
         <v>51.800000000000004</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G142">
+        <f t="shared" si="14"/>
+        <v>14.703333333333333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -3327,8 +4176,12 @@
       <c r="F143" s="2">
         <v>61.066666666666663</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G143">
+        <f t="shared" si="14"/>
+        <v>3.5888888888888886</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -3347,8 +4200,12 @@
       <c r="F144" s="2">
         <v>75.666666666666671</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G144">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -3367,8 +4224,12 @@
       <c r="F145" s="2">
         <v>64.433333333333337</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G145">
+        <f t="shared" si="14"/>
+        <v>2.822222222222222</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -3387,8 +4248,12 @@
       <c r="F146">
         <v>57.066666666666663</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G146">
+        <f t="shared" si="14"/>
+        <v>12.768730158730161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3407,8 +4272,12 @@
       <c r="F147">
         <v>63.266666666666673</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G147">
+        <f t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -3427,8 +4296,12 @@
       <c r="F148">
         <v>68.166666666666671</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G148">
+        <f t="shared" si="14"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -3447,8 +4320,12 @@
       <c r="F149">
         <v>68.166666666666671</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G149">
+        <f t="shared" si="14"/>
+        <v>2.0442857142857145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -3467,8 +4344,12 @@
       <c r="F150">
         <v>55.833333333333336</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G150">
+        <f t="shared" si="14"/>
+        <v>22.79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -3487,8 +4368,12 @@
       <c r="F151">
         <v>59.333333333333336</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G151">
+        <f t="shared" si="14"/>
+        <v>8.2863888888888884</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -3507,8 +4392,12 @@
       <c r="F152">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G152">
+        <f t="shared" si="14"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -3527,8 +4416,12 @@
       <c r="F153">
         <v>63.70000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G153">
+        <f t="shared" si="14"/>
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -3547,8 +4440,12 @@
       <c r="F154">
         <v>56.733333333333327</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G154">
+        <f t="shared" si="14"/>
+        <v>2.1775000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -3567,8 +4464,12 @@
       <c r="F155">
         <v>57.333333333333336</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G155">
+        <f t="shared" si="14"/>
+        <v>4.5187500000000007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -3587,8 +4488,12 @@
       <c r="F156">
         <v>64.63333333333334</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G156">
+        <f t="shared" si="14"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -3607,8 +4512,12 @@
       <c r="F157">
         <v>63.533333333333339</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G157">
+        <f t="shared" si="14"/>
+        <v>0.89250000000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -3627,8 +4536,12 @@
       <c r="F158" s="2">
         <v>56.633333333333333</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G158">
+        <f t="shared" si="14"/>
+        <v>8.4770000000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -3647,8 +4560,12 @@
       <c r="F159" s="2">
         <v>60.266666666666673</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G159">
+        <f t="shared" si="14"/>
+        <v>6.1199999999999992</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -3667,8 +4584,12 @@
       <c r="F160" s="2">
         <v>66.666666666666671</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G160">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -3687,8 +4608,12 @@
       <c r="F161" s="2">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G161">
+        <f t="shared" si="14"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -3707,8 +4632,12 @@
       <c r="F162" s="2">
         <v>54.266666666666673</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G162">
+        <f t="shared" si="14"/>
+        <v>17.742361111111112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -3727,8 +4656,12 @@
       <c r="F163" s="2">
         <v>59.433333333333337</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G163">
+        <f t="shared" si="14"/>
+        <v>5.7675000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -3747,8 +4680,12 @@
       <c r="F164" s="2">
         <v>65.833333333333329</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G164">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -3767,8 +4704,12 @@
       <c r="F165" s="2">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G165">
+        <f t="shared" si="14"/>
+        <v>3.3600000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -3787,8 +4728,12 @@
       <c r="F166" s="2">
         <v>55.833333333333336</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G166">
+        <f t="shared" si="14"/>
+        <v>6.8084848484848486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -3807,8 +4752,12 @@
       <c r="F167" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G167">
+        <f t="shared" si="14"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -3827,8 +4776,12 @@
       <c r="F168" s="2">
         <v>65.133333333333326</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G168">
+        <f t="shared" si="14"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -3847,8 +4800,12 @@
       <c r="F169" s="2">
         <v>62.566666666666663</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G169">
+        <f t="shared" si="14"/>
+        <v>5.3775000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -3867,8 +4824,12 @@
       <c r="F170" s="2">
         <v>57.800000000000004</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G170">
+        <f t="shared" si="14"/>
+        <v>4.0388888888888896</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -3887,8 +4848,12 @@
       <c r="F171" s="2">
         <v>59.533333333333331</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G171">
+        <f t="shared" si="14"/>
+        <v>11.849999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -3907,8 +4872,12 @@
       <c r="F172" s="2">
         <v>67.233333333333334</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G172">
+        <f t="shared" si="14"/>
+        <v>0.11333333333333334</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -3927,8 +4896,12 @@
       <c r="F173" s="2">
         <v>63.633333333333333</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G173">
+        <f t="shared" si="14"/>
+        <v>2.6459999999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -3947,8 +4920,12 @@
       <c r="F174" s="2">
         <v>55.56666666666667</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G174">
+        <f t="shared" si="14"/>
+        <v>10.644226190476191</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -3967,8 +4944,12 @@
       <c r="F175" s="2">
         <v>62.333333333333336</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G175">
+        <f t="shared" si="14"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -3987,8 +4968,12 @@
       <c r="F176" s="2">
         <v>66.100000000000009</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G176">
+        <f t="shared" si="14"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -4007,8 +4992,12 @@
       <c r="F177" s="2">
         <v>64.233333333333334</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G177">
+        <f t="shared" si="14"/>
+        <v>2.2250000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -4027,8 +5016,12 @@
       <c r="F178" s="2">
         <v>57.300000000000004</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G178">
+        <f t="shared" si="14"/>
+        <v>21.244772727272725</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -4047,8 +5040,12 @@
       <c r="F179" s="2">
         <v>61.166666666666664</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G179">
+        <f t="shared" si="14"/>
+        <v>4.9616666666666669</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -4067,8 +5064,12 @@
       <c r="F180" s="2">
         <v>65.866666666666674</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G180">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -4087,8 +5088,12 @@
       <c r="F181" s="2">
         <v>64.033333333333331</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G181">
+        <f t="shared" si="14"/>
+        <v>5.8885714285714279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -4107,8 +5112,12 @@
       <c r="F182" s="2">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G182">
+        <f t="shared" si="14"/>
+        <v>6.3839999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -4127,8 +5136,12 @@
       <c r="F183" s="2">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G183">
+        <f t="shared" si="14"/>
+        <v>11.707738095238096</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -4147,8 +5160,12 @@
       <c r="F184" s="2">
         <v>66.599999999999994</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G184">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -4167,8 +5184,12 @@
       <c r="F185" s="2">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G185">
+        <f t="shared" si="14"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>15</v>
       </c>
@@ -4187,8 +5208,12 @@
       <c r="F186" s="2">
         <v>55.45000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G186">
+        <f t="shared" si="14"/>
+        <v>5.7875000000000014</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -4207,8 +5232,12 @@
       <c r="F187" s="2">
         <v>60.2</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G187">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -4227,8 +5256,12 @@
       <c r="F188" s="2">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G188">
+        <f t="shared" si="14"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -4247,8 +5280,12 @@
       <c r="F189" s="2">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G189">
+        <f t="shared" si="14"/>
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -4267,8 +5304,12 @@
       <c r="F190" s="2">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G190">
+        <f t="shared" si="14"/>
+        <v>17.199999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -4287,8 +5328,12 @@
       <c r="F191" s="2">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G191">
+        <f t="shared" si="14"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -4307,8 +5352,12 @@
       <c r="F192" s="2">
         <v>65.650000000000006</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G192">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -4327,8 +5376,12 @@
       <c r="F193" s="2">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G193">
+        <f t="shared" si="14"/>
+        <v>4.9920000000000009</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -4347,8 +5400,12 @@
       <c r="F194" s="2">
         <v>55.9</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G194">
+        <f t="shared" si="14"/>
+        <v>14.220000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4367,8 +5424,12 @@
       <c r="F195" s="2">
         <v>62.166666666666664</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G195">
+        <f t="shared" ref="G195:G258" si="15">E195*D195</f>
+        <v>0.79333333333333345</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -4387,8 +5448,12 @@
       <c r="F196" s="2">
         <v>69.266666666666666</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G196">
+        <f t="shared" si="15"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -4407,8 +5472,12 @@
       <c r="F197" s="2">
         <v>66.933333333333323</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G197">
+        <f t="shared" si="15"/>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -4427,8 +5496,12 @@
       <c r="F198" s="2">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G198">
+        <f t="shared" si="15"/>
+        <v>15.940972222222221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -4447,8 +5520,12 @@
       <c r="F199" s="2">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G199">
+        <f t="shared" si="15"/>
+        <v>2.9437500000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -4467,8 +5544,12 @@
       <c r="F200" s="2">
         <v>67.733333333333334</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G200">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -4487,8 +5568,12 @@
       <c r="F201" s="2">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G201">
+        <f t="shared" si="15"/>
+        <v>2.681111111111111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -4507,8 +5592,12 @@
       <c r="F202" s="2">
         <v>56.79999999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G202">
+        <f t="shared" si="15"/>
+        <v>4.3609523809523809</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -4527,8 +5616,12 @@
       <c r="F203" s="2">
         <v>62.75</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G203">
+        <f t="shared" si="15"/>
+        <v>5.1388888888888884</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -4547,8 +5640,12 @@
       <c r="F204" s="2">
         <v>65.133333333333326</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G204">
+        <f t="shared" si="15"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -4567,8 +5664,12 @@
       <c r="F205" s="2">
         <v>57.3</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G205">
+        <f t="shared" si="15"/>
+        <v>2.528</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -4587,8 +5688,12 @@
       <c r="F206" s="2">
         <v>55.56666666666667</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G206">
+        <f t="shared" si="15"/>
+        <v>7.6414285714285715</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -4607,8 +5712,12 @@
       <c r="F207" s="2">
         <v>59.633333333333326</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G207">
+        <f t="shared" si="15"/>
+        <v>4.0126666666666662</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -4627,8 +5736,12 @@
       <c r="F208" s="2">
         <v>66.566666666666677</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G208">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -4647,8 +5760,12 @@
       <c r="F209" s="2">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G209">
+        <f t="shared" si="15"/>
+        <v>1.2604166666666665</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4667,8 +5784,12 @@
       <c r="F210" s="2">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G210">
+        <f t="shared" si="15"/>
+        <v>1.4233333333333336</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -4687,8 +5808,12 @@
       <c r="F211" s="2">
         <v>61.766666666666673</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G211">
+        <f t="shared" si="15"/>
+        <v>0.84583333333333333</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -4707,8 +5832,12 @@
       <c r="F212" s="2">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G212">
+        <f t="shared" si="15"/>
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -4727,8 +5856,12 @@
       <c r="F213" s="2">
         <v>61.8</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G213">
+        <f t="shared" si="15"/>
+        <v>0.6444444444444446</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -4747,8 +5880,12 @@
       <c r="F214" s="2">
         <v>58.033333333333331</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G214">
+        <f t="shared" si="15"/>
+        <v>6.7515757575757585</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -4767,8 +5904,12 @@
       <c r="F215" s="2">
         <v>63.9</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G215">
+        <f t="shared" si="15"/>
+        <v>2.3022222222222224</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -4787,8 +5928,12 @@
       <c r="F216" s="2">
         <v>69.033333333333346</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G216">
+        <f t="shared" si="15"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>15</v>
       </c>
@@ -4807,8 +5952,12 @@
       <c r="F217" s="2">
         <v>67.966666666666669</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G217">
+        <f t="shared" si="15"/>
+        <v>0.59333333333333338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -4827,8 +5976,12 @@
       <c r="F218" s="2">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G218">
+        <f t="shared" si="15"/>
+        <v>6.7066666666666661</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -4847,8 +6000,12 @@
       <c r="F219" s="2">
         <v>62.70000000000001</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G219">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -4867,8 +6024,12 @@
       <c r="F220" s="2">
         <v>72.233333333333334</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G220">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -4887,8 +6048,12 @@
       <c r="F221" s="2">
         <v>63.533333333333339</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G221">
+        <f t="shared" si="15"/>
+        <v>1.6375000000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4907,8 +6072,12 @@
       <c r="F222" s="2">
         <v>47.766666666666673</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G222">
+        <f t="shared" si="15"/>
+        <v>8.7294117647058815</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -4927,8 +6096,12 @@
       <c r="F223" s="2">
         <v>55.6</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G223">
+        <f t="shared" si="15"/>
+        <v>6.0619894179894187</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -4947,8 +6120,12 @@
       <c r="F224" s="2">
         <v>72.699999999999989</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G224">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -4967,8 +6144,12 @@
       <c r="F225" s="2">
         <v>60.566666666666663</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G225">
+        <f t="shared" si="15"/>
+        <v>1.1713333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -4987,8 +6168,12 @@
       <c r="F226" s="2">
         <v>48.566666666666663</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G226">
+        <f t="shared" si="15"/>
+        <v>3.0221904761904765</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -5007,8 +6192,12 @@
       <c r="F227" s="2">
         <v>55.233333333333327</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G227">
+        <f t="shared" si="15"/>
+        <v>2.0562499999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -5027,8 +6216,12 @@
       <c r="F228" s="2">
         <v>70.86666666666666</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G228">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -5047,8 +6240,12 @@
       <c r="F229" s="2">
         <v>63.966666666666661</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G229">
+        <f t="shared" si="15"/>
+        <v>0.72333333333333338</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -5067,8 +6264,12 @@
       <c r="F230" s="2">
         <v>51.166666666666664</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G230">
+        <f t="shared" si="15"/>
+        <v>5.5004444444444447</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -5087,8 +6288,12 @@
       <c r="F231" s="2">
         <v>60.300000000000004</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G231">
+        <f t="shared" si="15"/>
+        <v>2.3171428571428572</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -5107,8 +6312,12 @@
       <c r="F232" s="2">
         <v>73.499999999999986</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G232">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -5127,8 +6336,12 @@
       <c r="F233" s="2">
         <v>60.433333333333337</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G233">
+        <f t="shared" si="15"/>
+        <v>0.68133333333333335</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5147,8 +6360,12 @@
       <c r="F234" s="2">
         <v>46.466666666666669</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G234">
+        <f t="shared" si="15"/>
+        <v>9.7090370370370369</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -5167,8 +6384,12 @@
       <c r="F235" s="2">
         <v>59.766666666666673</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G235">
+        <f t="shared" si="15"/>
+        <v>3.8938095238095238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -5187,8 +6408,12 @@
       <c r="F236" s="2">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G236">
+        <f t="shared" si="15"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -5207,8 +6432,12 @@
       <c r="F237" s="2">
         <v>62.766666666666673</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G237">
+        <f t="shared" si="15"/>
+        <v>1.4088888888888889</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -5227,8 +6456,12 @@
       <c r="F238" s="2">
         <v>47.466666666666669</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G238">
+        <f t="shared" si="15"/>
+        <v>3.634358974358975</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -5247,8 +6480,12 @@
       <c r="F239" s="2">
         <v>56.566666666666663</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G239">
+        <f t="shared" si="15"/>
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -5267,8 +6504,12 @@
       <c r="F240" s="2">
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G240">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -5287,8 +6528,12 @@
       <c r="F241" s="2">
         <v>61.633333333333333</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G241">
+        <f t="shared" si="15"/>
+        <v>0.85555555555555551</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>14</v>
       </c>
@@ -5307,8 +6552,12 @@
       <c r="F242" s="2">
         <v>49.199999999999996</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G242">
+        <f t="shared" si="15"/>
+        <v>3.2906666666666666</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -5327,8 +6576,12 @@
       <c r="F243" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G243">
+        <f t="shared" si="15"/>
+        <v>4.2777777777777786</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -5347,8 +6600,12 @@
       <c r="F244" s="2">
         <v>73.199999999999989</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G244">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -5367,8 +6624,12 @@
       <c r="F245" s="2">
         <v>62.533333333333339</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G245">
+        <f t="shared" si="15"/>
+        <v>1.0313333333333334</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -5387,8 +6648,12 @@
       <c r="F246" s="2">
         <v>47.4</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G246">
+        <f t="shared" si="15"/>
+        <v>8.2619047619047628</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -5407,8 +6672,12 @@
       <c r="F247" s="2">
         <v>60.766666666666673</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G247">
+        <f t="shared" si="15"/>
+        <v>0.25555555555555554</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -5427,8 +6696,12 @@
       <c r="F248" s="2">
         <v>71.699999999999989</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G248">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -5447,8 +6720,12 @@
       <c r="F249" s="2">
         <v>59.533333333333339</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G249">
+        <f t="shared" si="15"/>
+        <v>3.997777777777777</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>14</v>
       </c>
@@ -5467,8 +6744,12 @@
       <c r="F250" s="2">
         <v>50.366666666666667</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G250">
+        <f t="shared" si="15"/>
+        <v>10.152883782883784</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -5487,8 +6768,12 @@
       <c r="F251" s="2">
         <v>57.966666666666669</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G251">
+        <f t="shared" si="15"/>
+        <v>3.8103636363636353</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -5507,8 +6792,12 @@
       <c r="F252" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G252">
+        <f t="shared" si="15"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -5527,8 +6816,12 @@
       <c r="F253" s="2">
         <v>61.20000000000001</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G253">
+        <f t="shared" si="15"/>
+        <v>0.24999999999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -5547,8 +6840,12 @@
       <c r="F254" s="2">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G254">
+        <f t="shared" si="15"/>
+        <v>6.0200000000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -5567,8 +6864,12 @@
       <c r="F255" s="2">
         <v>55.800000000000004</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G255">
+        <f t="shared" si="15"/>
+        <v>13.073560606060608</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -5587,8 +6888,12 @@
       <c r="F256" s="2">
         <v>74.066666666666663</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G256">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -5607,8 +6912,12 @@
       <c r="F257" s="2">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G257">
+        <f t="shared" si="15"/>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -5627,8 +6936,12 @@
       <c r="F258" s="2">
         <v>46.033333333333331</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G258">
+        <f t="shared" si="15"/>
+        <v>3.3055555555555558</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -5647,8 +6960,12 @@
       <c r="F259" s="2">
         <v>60.20000000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G259">
+        <f t="shared" ref="G259:G322" si="16">E259*D259</f>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -5667,8 +6984,12 @@
       <c r="F260" s="2">
         <v>73.166666666666671</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G260">
+        <f t="shared" si="16"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -5687,8 +7008,12 @@
       <c r="F261" s="2">
         <v>60.833333333333336</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G261">
+        <f t="shared" si="16"/>
+        <v>0.24999999999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -5707,8 +7032,12 @@
       <c r="F262" s="2">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G262">
+        <f t="shared" si="16"/>
+        <v>6.9383333333333326</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>14</v>
       </c>
@@ -5727,8 +7056,12 @@
       <c r="F263" s="2">
         <v>57.199999999999996</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G263">
+        <f t="shared" si="16"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -5747,8 +7080,12 @@
       <c r="F264" s="2">
         <v>73.599999999999994</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G264">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -5767,8 +7104,12 @@
       <c r="F265" s="2">
         <v>63.300000000000004</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G265">
+        <f t="shared" si="16"/>
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -5787,8 +7128,12 @@
       <c r="F266" s="2">
         <v>48.133333333333333</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G266">
+        <f t="shared" si="16"/>
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -5807,8 +7152,12 @@
       <c r="F267" s="2">
         <v>58.766666666666673</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G267">
+        <f t="shared" si="16"/>
+        <v>0.76111111111111118</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -5827,8 +7176,12 @@
       <c r="F268" s="2">
         <v>71.600000000000009</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G268">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -5847,8 +7200,12 @@
       <c r="F269" s="2">
         <v>61.333333333333336</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G269">
+        <f t="shared" si="16"/>
+        <v>1.5916666666666668</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -5867,8 +7224,12 @@
       <c r="F270" s="2">
         <v>50.466666666666669</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G270">
+        <f t="shared" si="16"/>
+        <v>13.111111111111109</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -5887,8 +7248,12 @@
       <c r="F271" s="2">
         <v>55.4</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G271">
+        <f t="shared" si="16"/>
+        <v>1.4480000000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -5907,8 +7272,12 @@
       <c r="F272" s="2">
         <v>71.233333333333334</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G272">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -5927,8 +7296,12 @@
       <c r="F273" s="2">
         <v>61.866666666666667</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G273">
+        <f t="shared" si="16"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>14</v>
       </c>
@@ -5947,8 +7320,12 @@
       <c r="F274" s="2">
         <v>47.333333333333336</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G274">
+        <f t="shared" si="16"/>
+        <v>3.3277777777777779</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -5967,8 +7344,12 @@
       <c r="F275" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G275">
+        <f t="shared" si="16"/>
+        <v>4.2050505050505045</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>14</v>
       </c>
@@ -5987,8 +7368,12 @@
       <c r="F276" s="2">
         <v>70.966666666666654</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G276">
+        <f t="shared" si="16"/>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -6007,8 +7392,12 @@
       <c r="F277" s="2">
         <v>62.533333333333339</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G277">
+        <f t="shared" si="16"/>
+        <v>1.9983333333333331</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>14</v>
       </c>
@@ -6027,8 +7416,12 @@
       <c r="F278" s="2">
         <v>48.833333333333336</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G278">
+        <f t="shared" si="16"/>
+        <v>4.6493162393162395</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -6047,8 +7440,12 @@
       <c r="F279" s="2">
         <v>58.533333333333331</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G279">
+        <f t="shared" si="16"/>
+        <v>3.0826666666666664</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -6067,8 +7464,12 @@
       <c r="F280" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G280">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -6087,8 +7488,12 @@
       <c r="F281" s="2">
         <v>63.666666666666664</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G281">
+        <f t="shared" si="16"/>
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -6107,8 +7512,12 @@
       <c r="F282" s="2">
         <v>46.466666666666669</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G282">
+        <f t="shared" si="16"/>
+        <v>1.2499999999999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -6127,8 +7536,12 @@
       <c r="F283" s="2">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G283">
+        <f t="shared" si="16"/>
+        <v>0.33999999999999997</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>14</v>
       </c>
@@ -6147,8 +7560,12 @@
       <c r="F284" s="2">
         <v>73.833333333333329</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G284">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -6167,8 +7584,12 @@
       <c r="F285" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G285">
+        <f t="shared" si="16"/>
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -6187,8 +7608,12 @@
       <c r="F286" s="2">
         <v>53.033333333333339</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G286">
+        <f t="shared" si="16"/>
+        <v>5.0333333333333332</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -6207,8 +7632,12 @@
       <c r="F287" s="2">
         <v>61.966666666666669</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G287">
+        <f t="shared" si="16"/>
+        <v>1.2038888888888888</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -6227,8 +7656,12 @@
       <c r="F288" s="2">
         <v>73.899999999999991</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G288">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -6247,8 +7680,12 @@
       <c r="F289" s="2">
         <v>65.500000000000014</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G289">
+        <f t="shared" si="16"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -6267,8 +7704,12 @@
       <c r="F290" s="2">
         <v>52.933333333333337</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G290">
+        <f t="shared" si="16"/>
+        <v>8.6508333333333329</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>13</v>
       </c>
@@ -6287,8 +7728,12 @@
       <c r="F291" s="2">
         <v>58.633333333333326</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G291">
+        <f t="shared" si="16"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -6307,8 +7752,12 @@
       <c r="F292" s="2">
         <v>63.533333333333331</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G292">
+        <f t="shared" si="16"/>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>13</v>
       </c>
@@ -6327,8 +7776,12 @@
       <c r="F293" s="2">
         <v>62.733333333333327</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G293">
+        <f t="shared" si="16"/>
+        <v>3.862222222222222</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -6347,8 +7800,12 @@
       <c r="F294" s="2">
         <v>51.933333333333337</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G294">
+        <f t="shared" si="16"/>
+        <v>19.151575757575756</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>13</v>
       </c>
@@ -6367,8 +7824,12 @@
       <c r="F295" s="2">
         <v>56.4</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G295">
+        <f t="shared" si="16"/>
+        <v>9.3772307692307688</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -6387,8 +7848,12 @@
       <c r="F296" s="2">
         <v>61.833333333333336</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G296">
+        <f t="shared" si="16"/>
+        <v>0.11833333333333335</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -6407,8 +7872,12 @@
       <c r="F297" s="2">
         <v>59.133333333333326</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G297">
+        <f t="shared" si="16"/>
+        <v>4.8486060606060599</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>13</v>
       </c>
@@ -6427,8 +7896,12 @@
       <c r="F298" s="2">
         <v>51.966666666666669</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G298">
+        <f t="shared" si="16"/>
+        <v>4.8565656565656559</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -6447,8 +7920,12 @@
       <c r="F299" s="2">
         <v>53.433333333333337</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G299">
+        <f t="shared" si="16"/>
+        <v>4.7419607843137257</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -6467,8 +7944,12 @@
       <c r="F300" s="2">
         <v>60.766666666666673</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G300">
+        <f t="shared" si="16"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>13</v>
       </c>
@@ -6487,8 +7968,12 @@
       <c r="F301" s="2">
         <v>59.266666666666659</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G301">
+        <f t="shared" si="16"/>
+        <v>1.6081481481481481</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -6507,8 +7992,12 @@
       <c r="F302" s="2">
         <v>53.666666666666664</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G302">
+        <f t="shared" si="16"/>
+        <v>9.2506878306878306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -6527,8 +8016,12 @@
       <c r="F303" s="2">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G303">
+        <f t="shared" si="16"/>
+        <v>3.3134285714285712</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -6547,8 +8040,12 @@
       <c r="F304" s="2">
         <v>61.15</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G304">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>13</v>
       </c>
@@ -6567,8 +8064,12 @@
       <c r="F305" s="2">
         <v>61.349999999999994</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G305">
+        <f t="shared" si="16"/>
+        <v>4.6112500000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -6587,8 +8088,12 @@
       <c r="F306" s="2">
         <v>51.4</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G306">
+        <f t="shared" si="16"/>
+        <v>12.127613636363638</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -6607,8 +8112,12 @@
       <c r="F307" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G307">
+        <f t="shared" si="16"/>
+        <v>2.499166666666667</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>13</v>
       </c>
@@ -6627,8 +8136,12 @@
       <c r="F308" s="2">
         <v>61.1</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G308">
+        <f t="shared" si="16"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -6647,8 +8160,12 @@
       <c r="F309" s="2">
         <v>59.266666666666673</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G309">
+        <f t="shared" si="16"/>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -6667,8 +8184,12 @@
       <c r="F310" s="2">
         <v>52.066666666666663</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G310">
+        <f t="shared" si="16"/>
+        <v>6.8865000000000007</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>13</v>
       </c>
@@ -6687,8 +8208,12 @@
       <c r="F311" s="2">
         <v>54.833333333333336</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G311">
+        <f t="shared" si="16"/>
+        <v>2.4133333333333336</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -6707,8 +8232,12 @@
       <c r="F312" s="2">
         <v>60.800000000000004</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G312">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>13</v>
       </c>
@@ -6727,8 +8256,12 @@
       <c r="F313" s="2">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G313">
+        <f t="shared" si="16"/>
+        <v>0.90533333333333332</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -6747,8 +8280,12 @@
       <c r="F314" s="2">
         <v>54.233333333333327</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G314">
+        <f t="shared" si="16"/>
+        <v>7.8611111111111107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -6767,8 +8304,12 @@
       <c r="F315" s="2">
         <v>55.866666666666667</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G315">
+        <f t="shared" si="16"/>
+        <v>3.9020634920634918</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>13</v>
       </c>
@@ -6787,8 +8328,12 @@
       <c r="F316" s="2">
         <v>62.733333333333327</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G316">
+        <f t="shared" si="16"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -6807,8 +8352,12 @@
       <c r="F317" s="2">
         <v>59.800000000000004</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G317">
+        <f t="shared" si="16"/>
+        <v>1.417111111111111</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -6827,8 +8376,12 @@
       <c r="F318" s="2">
         <v>51.866666666666674</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G318">
+        <f t="shared" si="16"/>
+        <v>10.43863492063492</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>13</v>
       </c>
@@ -6847,8 +8400,12 @@
       <c r="F319" s="2">
         <v>58.466666666666669</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G319">
+        <f t="shared" si="16"/>
+        <v>0.31111111111111112</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>13</v>
       </c>
@@ -6867,8 +8424,12 @@
       <c r="F320" s="2">
         <v>62.533333333333339</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G320">
+        <f t="shared" si="16"/>
+        <v>9.1666666666666674E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -6887,8 +8448,12 @@
       <c r="F321" s="2">
         <v>59.333333333333336</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G321">
+        <f t="shared" si="16"/>
+        <v>3.2865185185185184</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>13</v>
       </c>
@@ -6907,8 +8472,12 @@
       <c r="F322" s="2">
         <v>53.633333333333333</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G322">
+        <f t="shared" si="16"/>
+        <v>12.240677655677658</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>13</v>
       </c>
@@ -6927,8 +8496,12 @@
       <c r="F323" s="2">
         <v>57.466666666666669</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G323">
+        <f t="shared" ref="G323:G361" si="17">E323*D323</f>
+        <v>5.83920634920635</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -6947,8 +8520,12 @@
       <c r="F324" s="2">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G324">
+        <f t="shared" si="17"/>
+        <v>0.22222222222222224</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -6967,8 +8544,12 @@
       <c r="F325" s="2">
         <v>58.966666666666669</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G325">
+        <f t="shared" si="17"/>
+        <v>0.80476190476190479</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>13</v>
       </c>
@@ -6987,8 +8568,12 @@
       <c r="F326" s="2">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G326">
+        <f t="shared" si="17"/>
+        <v>6.1429365079365086</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>13</v>
       </c>
@@ -7007,8 +8592,12 @@
       <c r="F327" s="2">
         <v>54.800000000000004</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G327">
+        <f t="shared" si="17"/>
+        <v>10.611650793650794</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -7027,8 +8616,12 @@
       <c r="F328" s="2">
         <v>61.333333333333336</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G328">
+        <f t="shared" si="17"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>13</v>
       </c>
@@ -7047,8 +8640,12 @@
       <c r="F329" s="2">
         <v>57.166666666666664</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G329">
+        <f t="shared" si="17"/>
+        <v>0.74148148148148163</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -7067,8 +8664,12 @@
       <c r="F330" s="2">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G330">
+        <f t="shared" si="17"/>
+        <v>4.9221794871794877</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -7087,8 +8688,12 @@
       <c r="F331" s="2">
         <v>54.066666666666663</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G331">
+        <f t="shared" si="17"/>
+        <v>1.5128571428571429</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>13</v>
       </c>
@@ -7107,8 +8712,12 @@
       <c r="F332" s="2">
         <v>59.833333333333336</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G332">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -7127,8 +8736,12 @@
       <c r="F333" s="2">
         <v>57.699999999999996</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G333">
+        <f t="shared" si="17"/>
+        <v>2.0051111111111113</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>13</v>
       </c>
@@ -7147,8 +8760,12 @@
       <c r="F334" s="2">
         <v>49.233333333333327</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G334">
+        <f t="shared" si="17"/>
+        <v>11.201850079744817</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>13</v>
       </c>
@@ -7167,8 +8784,12 @@
       <c r="F335" s="2">
         <v>52.9</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G335">
+        <f t="shared" si="17"/>
+        <v>0.61066666666666669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -7187,8 +8808,12 @@
       <c r="F336" s="2">
         <v>59.533333333333331</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G336">
+        <f t="shared" si="17"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>13</v>
       </c>
@@ -7207,8 +8832,12 @@
       <c r="F337" s="2">
         <v>58.766666666666673</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G337">
+        <f t="shared" si="17"/>
+        <v>0.90666666666666673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>13</v>
       </c>
@@ -7227,8 +8856,12 @@
       <c r="F338" s="2">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G338">
+        <f t="shared" si="17"/>
+        <v>9.3212987012987032</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>13</v>
       </c>
@@ -7247,8 +8880,12 @@
       <c r="F339" s="2">
         <v>53.833333333333336</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G339">
+        <f t="shared" si="17"/>
+        <v>2.2020833333333334</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -7267,8 +8904,12 @@
       <c r="F340" s="2">
         <v>60.166666666666664</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G340">
+        <f t="shared" si="17"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>13</v>
       </c>
@@ -7287,8 +8928,12 @@
       <c r="F341" s="2">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G341">
+        <f t="shared" si="17"/>
+        <v>2.7266666666666666</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>13</v>
       </c>
@@ -7307,8 +8952,12 @@
       <c r="F342" s="2">
         <v>52.133333333333333</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G342">
+        <f t="shared" si="17"/>
+        <v>12.80352564102564</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -7327,8 +8976,12 @@
       <c r="F343" s="2">
         <v>53.466666666666669</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G343">
+        <f t="shared" si="17"/>
+        <v>6.2888888888888879</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>13</v>
       </c>
@@ -7347,8 +9000,12 @@
       <c r="F344" s="2">
         <v>59.466666666666669</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G344">
+        <f t="shared" si="17"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -7367,8 +9024,12 @@
       <c r="F345" s="2">
         <v>57.233333333333327</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G345">
+        <f t="shared" si="17"/>
+        <v>2.3724166666666671</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>13</v>
       </c>
@@ -7387,8 +9048,12 @@
       <c r="F346" s="2">
         <v>50.133333333333326</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G346">
+        <f t="shared" si="17"/>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -7407,8 +9072,12 @@
       <c r="F347" s="2">
         <v>53.666666666666664</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G347">
+        <f t="shared" si="17"/>
+        <v>4.4076190476190478</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>13</v>
       </c>
@@ -7427,8 +9096,12 @@
       <c r="F348" s="2">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G348">
+        <f t="shared" si="17"/>
+        <v>0.60202380952380952</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>13</v>
       </c>
@@ -7447,8 +9120,12 @@
       <c r="F349" s="2">
         <v>57.166666666666664</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G349">
+        <f t="shared" si="17"/>
+        <v>2.4771428571428573</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -7467,8 +9144,12 @@
       <c r="F350" s="2">
         <v>50.800000000000004</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G350">
+        <f t="shared" si="17"/>
+        <v>5.7878888888888884</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>13</v>
       </c>
@@ -7487,8 +9168,12 @@
       <c r="F351" s="2">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G351">
+        <f t="shared" si="17"/>
+        <v>4.6859999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>13</v>
       </c>
@@ -7507,8 +9192,12 @@
       <c r="F352" s="2">
         <v>58.166666666666664</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G352">
+        <f t="shared" si="17"/>
+        <v>0.4161111111111111</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -7527,8 +9216,12 @@
       <c r="F353" s="2">
         <v>57.933333333333337</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G353">
+        <f t="shared" si="17"/>
+        <v>2.6100000000000003</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>13</v>
       </c>
@@ -7547,8 +9240,12 @@
       <c r="F354" s="2">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G354">
+        <f t="shared" si="17"/>
+        <v>2.0266666666666668</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>13</v>
       </c>
@@ -7567,8 +9264,12 @@
       <c r="F355" s="2">
         <v>54.566666666666663</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G355">
+        <f t="shared" si="17"/>
+        <v>0.92083333333333328</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -7587,8 +9288,12 @@
       <c r="F356" s="2">
         <v>60.233333333333327</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G356">
+        <f t="shared" si="17"/>
+        <v>0.1361904761904762</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -7607,8 +9312,12 @@
       <c r="F357" s="2">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G357">
+        <f t="shared" si="17"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -7627,8 +9336,12 @@
       <c r="F358" s="2">
         <v>53.933333333333337</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G358">
+        <f t="shared" si="17"/>
+        <v>9.2423076923076923</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>13</v>
       </c>
@@ -7647,8 +9360,12 @@
       <c r="F359" s="2">
         <v>56.666666666666664</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G359">
+        <f t="shared" si="17"/>
+        <v>3.4054999999999995</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>13</v>
       </c>
@@ -7667,8 +9384,12 @@
       <c r="F360" s="2">
         <v>61.800000000000004</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G360">
+        <f t="shared" si="17"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>13</v>
       </c>
@@ -7687,8 +9408,15 @@
       <c r="F361" s="2">
         <v>61.033333333333331</v>
       </c>
+      <c r="G361">
+        <f t="shared" si="17"/>
+        <v>3.3742857142857146</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:H12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seasons_data.xlsx
+++ b/seasons_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelzhang/Documents/GitHub/CS-3300-P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442FB0E8-429E-3A43-A46C-ACDD209A3C1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A8A42-59F9-B940-954A-E4F9BD32D478}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30200" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14680" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weather_data" sheetId="5" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
